--- a/File_Excel/commenti_odio_per_notizia_cronaca.xlsx
+++ b/File_Excel/commenti_odio_per_notizia_cronaca.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">

--- a/File_Excel/commenti_odio_per_notizia_cronaca.xlsx
+++ b/File_Excel/commenti_odio_per_notizia_cronaca.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
